--- a/Planning_Crud_Operation.xlsx
+++ b/Planning_Crud_Operation.xlsx
@@ -59,12 +59,6 @@
     <t>Khalid</t>
   </si>
   <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t>09.12.14</t>
-  </si>
-  <si>
     <t>CRUD operations using Spring</t>
   </si>
   <si>
@@ -124,6 +118,12 @@
   </si>
   <si>
     <t>11.12.14</t>
+  </si>
+  <si>
+    <t>08.12.14</t>
+  </si>
+  <si>
+    <t>2 day</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="25" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -939,7 +939,7 @@
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -953,7 +953,7 @@
     </row>
     <row r="3" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -987,16 +987,16 @@
         <v>7</v>
       </c>
       <c r="G4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="J4" s="27" t="s">
         <v>17</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>19</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>8</v>
@@ -1010,22 +1010,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="7">
-        <v>41894</v>
+        <v>41863</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="8"/>
@@ -1037,19 +1037,19 @@
       <c r="A6" s="62"/>
       <c r="B6" s="64"/>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="28">
-        <v>41894</v>
+        <v>41863</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="12"/>
@@ -1076,22 +1076,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="28">
-        <v>41894</v>
+        <v>41863</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="38"/>
@@ -1104,16 +1104,16 @@
       <c r="B9" s="48"/>
       <c r="C9" s="54"/>
       <c r="D9" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="28">
         <v>41894</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="36"/>
@@ -1126,16 +1126,16 @@
       <c r="B10" s="48"/>
       <c r="C10" s="54"/>
       <c r="D10" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="28">
-        <v>41894</v>
+        <v>41863</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="36"/>
@@ -1148,16 +1148,16 @@
       <c r="B11" s="49"/>
       <c r="C11" s="55"/>
       <c r="D11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>30</v>
       </c>
       <c r="F11" s="28">
         <v>41894</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="16"/>
